--- a/Beratertag/Testfaelle/03_Bibliotheken/xlsx/testcases.xlsx
+++ b/Beratertag/Testfaelle/03_Bibliotheken/xlsx/testcases.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imbusag-my.sharepoint.com/personal/fabian_tsirogiannis_imbus_de/Documents/Dokumente/Workshops/Beratertag_20241206/robotframework-tutorial-de/Beratertag/Testfaelle/03_Bibliotheken/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabiant/Library/CloudStorage/OneDrive-imbusAG/Dokumente/Workshops/Beratertag_20241206/robotframework-tutorial-de/Beratertag/Testfaelle/03_Bibliotheken/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9189E89-7C26-6742-AB36-0DA3CCBFEDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F600D05-4CF6-574D-A796-82E7CD493A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="920" windowWidth="27840" windowHeight="17240" xr2:uid="{8A1D2D81-3D15-D743-9B4F-5B8D9A4E1C1E}"/>
+    <workbookView xWindow="2020" yWindow="1460" windowWidth="27840" windowHeight="17240" activeTab="1" xr2:uid="{8A1D2D81-3D15-D743-9B4F-5B8D9A4E1C1E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Multiplikation" sheetId="1" r:id="rId1"/>
+    <sheet name="Division" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -54,6 +55,15 @@
   </si>
   <si>
     <t>Multipliziere 99 mit 99</t>
+  </si>
+  <si>
+    <t>Dividiere 9981 durch 11</t>
+  </si>
+  <si>
+    <t>Dividiere 4711 durch 42</t>
+  </si>
+  <si>
+    <t>Dividiere 22 durch 3</t>
   </si>
 </sst>
 </file>
@@ -434,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC7458C-9E02-8E41-AA5E-0F07D012C102}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -491,4 +501,67 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A681D5DC-43B4-6440-81E6-8F4DD13EF28A}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>9981</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>4711</v>
+      </c>
+      <c r="C3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Beratertag/Testfaelle/03_Bibliotheken/xlsx/testcases.xlsx
+++ b/Beratertag/Testfaelle/03_Bibliotheken/xlsx/testcases.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabiant/Library/CloudStorage/OneDrive-imbusAG/Dokumente/Workshops/Beratertag_20241206/robotframework-tutorial-de/Beratertag/Testfaelle/03_Bibliotheken/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imbusag-my.sharepoint.com/personal/fabian_tsirogiannis_imbus_de/Documents/Dokumente/Workshops/Beratertag_20241206/robotframework-tutorial-de/Beratertag/Testfaelle/03_Bibliotheken/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F600D05-4CF6-574D-A796-82E7CD493A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{0F600D05-4CF6-574D-A796-82E7CD493A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8599FE95-1E14-BF45-8506-8F914E4B3B63}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="1460" windowWidth="27840" windowHeight="17240" activeTab="1" xr2:uid="{8A1D2D81-3D15-D743-9B4F-5B8D9A4E1C1E}"/>
+    <workbookView xWindow="1380" yWindow="760" windowWidth="28860" windowHeight="18880" xr2:uid="{8A1D2D81-3D15-D743-9B4F-5B8D9A4E1C1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Multiplikation" sheetId="1" r:id="rId1"/>
     <sheet name="Division" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Dividiere 22 durch 3</t>
+  </si>
+  <si>
+    <t>Mulitpliziere 15 mit 15</t>
+  </si>
+  <si>
+    <t>${erwartungswert}</t>
   </si>
 </sst>
 </file>
@@ -105,9 +111,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -442,19 +449,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC7458C-9E02-8E41-AA5E-0F07D012C102}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,8 +472,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -475,8 +486,11 @@
       <c r="C2" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -486,8 +500,12 @@
       <c r="C3" s="1">
         <v>4711</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="2">
+        <f>B3*C3</f>
+        <v>197862</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -496,6 +514,25 @@
       </c>
       <c r="C4" s="1">
         <v>99</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D5" si="0">B4*C4</f>
+        <v>9801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -507,7 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A681D5DC-43B4-6440-81E6-8F4DD13EF28A}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/Beratertag/Testfaelle/03_Bibliotheken/xlsx/testcases.xlsx
+++ b/Beratertag/Testfaelle/03_Bibliotheken/xlsx/testcases.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{0F600D05-4CF6-574D-A796-82E7CD493A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8599FE95-1E14-BF45-8506-8F914E4B3B63}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="760" windowWidth="28860" windowHeight="18880" xr2:uid="{8A1D2D81-3D15-D743-9B4F-5B8D9A4E1C1E}"/>
+    <workbookView xWindow="1380" yWindow="760" windowWidth="28860" windowHeight="18880" activeTab="1" xr2:uid="{8A1D2D81-3D15-D743-9B4F-5B8D9A4E1C1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Multiplikation" sheetId="1" r:id="rId1"/>
@@ -451,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC7458C-9E02-8E41-AA5E-0F07D012C102}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D5"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -544,7 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A681D5DC-43B4-6440-81E6-8F4DD13EF28A}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="194" zoomScaleNormal="194" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
